--- a/Lojik_Lab1/truth table.xlsx
+++ b/Lojik_Lab1/truth table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\Lojik\Lojik_Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D99356-5B17-47EE-8B38-9A9BCBB7E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02640C02-A0A4-4825-BA57-BC126A276F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,7 +391,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,19 +710,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75553C-AF63-45E6-8103-326AD20E0AC8}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="5" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" customWidth="1"/>
+    <col min="6" max="7" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>0</v>
       </c>
@@ -753,9 +752,11 @@
       <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="12">
+        <v>101010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>0</v>
       </c>
@@ -770,7 +771,7 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="18">
         <v>0</v>
@@ -786,7 +787,7 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="18">
         <v>0</v>
@@ -802,7 +803,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="18">
         <v>0</v>
@@ -818,7 +819,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="18">
         <v>0</v>
@@ -833,9 +834,8 @@
         <v>1</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="18">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="18">
         <v>0</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="18">
         <v>1</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="18">
         <v>1</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="18">
         <v>1</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>1</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>1</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>1</v>
       </c>
@@ -960,7 +960,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>1</v>
       </c>

--- a/Lojik_Lab1/truth table.xlsx
+++ b/Lojik_Lab1/truth table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\Lojik\Lojik_Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02640C02-A0A4-4825-BA57-BC126A276F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A8B39-4AEC-4141-B212-8BE74ECD540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -342,12 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,7 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,12 +383,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +718,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,272 +728,302 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>101010</v>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16"/>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16"/>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17"/>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lojik_Lab1/truth table.xlsx
+++ b/Lojik_Lab1/truth table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\Lojik\Lojik_Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esra\Documents\GitHub\Lojik\Lojik_Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A8B39-4AEC-4141-B212-8BE74ECD540C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9A5B5C-5E5C-4AE3-B727-74D679D05506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +89,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -342,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,13 +393,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,6 +413,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFF3F3"/>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFC1C1"/>
     </mruColors>
   </colors>
@@ -718,16 +729,16 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="5" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -744,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>0</v>
       </c>
@@ -761,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>0</v>
       </c>
@@ -778,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="14">
         <v>0</v>
@@ -796,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="14">
         <v>0</v>
@@ -811,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="14">
         <v>0</v>
@@ -832,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="14">
         <v>0</v>
@@ -847,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="14">
         <v>0</v>
@@ -868,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="14">
         <v>0</v>
@@ -886,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14">
         <v>1</v>
@@ -904,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="14">
         <v>1</v>
@@ -922,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="14">
         <v>1</v>
@@ -937,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -954,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>1</v>
       </c>
@@ -971,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -988,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1</v>
       </c>
@@ -1004,11 +1015,11 @@
       <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
@@ -1021,7 +1032,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>1</v>
       </c>
     </row>

--- a/Lojik_Lab1/truth table.xlsx
+++ b/Lojik_Lab1/truth table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esra\Documents\GitHub\Lojik\Lojik_Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9A5B5C-5E5C-4AE3-B727-74D679D05506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F515D6-C37A-4844-A00F-A208EC77CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>F</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lojik_Lab1/truth table.xlsx
+++ b/Lojik_Lab1/truth table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esra\Documents\GitHub\Lojik\Lojik_Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F515D6-C37A-4844-A00F-A208EC77CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5189C154-5C1A-4F7F-80BE-F5E4636E86B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEA00B5E-59FE-42A0-9CDC-AB53AD3E190A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>G</t>
   </si>
@@ -51,13 +51,97 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Çıktı</t>
+  </si>
+  <si>
+    <t>AND gate</t>
+  </si>
+  <si>
+    <t>Or Gate</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>m0</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>m9</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>m11</t>
+  </si>
+  <si>
+    <t>m12</t>
+  </si>
+  <si>
+    <t>m13</t>
+  </si>
+  <si>
+    <t>m14</t>
+  </si>
+  <si>
+    <t>m15</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +153,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -344,11 +459,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +597,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,36 +950,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75553C-AF63-45E6-8103-326AD20E0AC8}">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
     <col min="6" max="7" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>0</v>
       </c>
@@ -769,10 +1022,31 @@
         <v>0</v>
       </c>
       <c r="F3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>0</v>
       </c>
@@ -786,10 +1060,31 @@
         <v>1</v>
       </c>
       <c r="F4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="14">
         <v>0</v>
@@ -806,8 +1101,29 @@
       <c r="F5" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="14">
         <v>0</v>
@@ -822,10 +1138,31 @@
         <v>1</v>
       </c>
       <c r="F6" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="20">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1</v>
+      </c>
+      <c r="O6" s="20">
+        <v>1</v>
+      </c>
+      <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="14">
         <v>0</v>
@@ -840,10 +1177,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="14">
         <v>0</v>
@@ -860,8 +1200,11 @@
       <c r="F8" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="14">
         <v>0</v>
@@ -876,10 +1219,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="14">
         <v>0</v>
@@ -896,8 +1242,11 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14">
         <v>1</v>
@@ -914,8 +1263,11 @@
       <c r="F11" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="14">
         <v>1</v>
@@ -930,10 +1282,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="14">
         <v>1</v>
@@ -950,8 +1305,11 @@
       <c r="F13" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -967,8 +1325,11 @@
       <c r="F14" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>1</v>
       </c>
@@ -984,8 +1345,11 @@
       <c r="F15" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -999,10 +1363,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>1</v>
       </c>
@@ -1015,11 +1382,14 @@
       <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
@@ -1032,12 +1402,407 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="F30" s="25">
+        <v>1</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>1</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+      <c r="F32" s="25">
+        <v>1</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>11</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>10</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B40:E40 A41:A42" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>